--- a/doc/spheres/spheres-time.xlsx
+++ b/doc/spheres/spheres-time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="10515" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="10515" windowHeight="4680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Spheres</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>AVG C++ ms per frame</t>
+  </si>
+  <si>
+    <t>Octree level</t>
+  </si>
+  <si>
+    <t>Time 1</t>
+  </si>
+  <si>
+    <t>Time 2</t>
+  </si>
+  <si>
+    <t>Time 3</t>
+  </si>
+  <si>
+    <t>AVG Time</t>
+  </si>
+  <si>
+    <t>AVG collision checks (M)</t>
   </si>
 </sst>
 </file>
@@ -368,11 +386,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80372096"/>
-        <c:axId val="80373632"/>
+        <c:axId val="39018880"/>
+        <c:axId val="39020416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80372096"/>
+        <c:axId val="39018880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,7 +400,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80373632"/>
+        <c:crossAx val="39020416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -390,7 +408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80373632"/>
+        <c:axId val="39020416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,7 +438,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80372096"/>
+        <c:crossAx val="39018880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -691,11 +709,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80544128"/>
-        <c:axId val="80545664"/>
+        <c:axId val="39190912"/>
+        <c:axId val="39192448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80544128"/>
+        <c:axId val="39190912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +723,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80545664"/>
+        <c:crossAx val="39192448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,7 +731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80545664"/>
+        <c:axId val="39192448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -745,7 +763,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80544128"/>
+        <c:crossAx val="39190912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -755,6 +773,340 @@
         <c:showOutline val="1"/>
         <c:showKeys val="1"/>
       </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>AVG run</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> t</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>ime per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> Octree depth level</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.7010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2986666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4886666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85433333333333328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4786666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6193333333333335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6636666666666668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4440000000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.50266666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="53473664"/>
+        <c:axId val="53475200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="53473664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53475200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53475200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53473664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG collision checks </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>(millions) per Octree</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> level</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG collision checks (M)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="53892224"/>
+        <c:axId val="53893760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="53892224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53893760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53893760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53892224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -819,6 +1171,71 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1124,7 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -1731,13 +2148,241 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>3.71</v>
+      </c>
+      <c r="C2">
+        <v>2.323</v>
+      </c>
+      <c r="D2">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.85</v>
+      </c>
+      <c r="F2">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G2">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="H2">
+        <v>2.536</v>
+      </c>
+      <c r="I2">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J2">
+        <v>8.3569999999999993</v>
+      </c>
+      <c r="K2">
+        <v>19.071000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="C3">
+        <v>2.2959999999999998</v>
+      </c>
+      <c r="D3">
+        <v>1.462</v>
+      </c>
+      <c r="E3">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G3">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="H3">
+        <v>2.6019999999999999</v>
+      </c>
+      <c r="I3">
+        <v>4.62</v>
+      </c>
+      <c r="J3">
+        <v>8.4730000000000008</v>
+      </c>
+      <c r="K3">
+        <v>19.707000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>3.722</v>
+      </c>
+      <c r="C4">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="G4">
+        <v>1.43</v>
+      </c>
+      <c r="H4">
+        <v>2.72</v>
+      </c>
+      <c r="I4">
+        <v>4.5209999999999999</v>
+      </c>
+      <c r="J4">
+        <v>8.5020000000000007</v>
+      </c>
+      <c r="K4">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(B2:B4)</f>
+        <v>3.7010000000000001</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:K5" si="0">AVERAGE(C2:C4)</f>
+        <v>2.2986666666666666</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.4886666666666668</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.85433333333333328</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.4786666666666666</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2.6193333333333335</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>4.6636666666666668</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>8.4440000000000008</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>19.50266666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>250</v>
+      </c>
+      <c r="C6">
+        <v>150</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/spheres/spheres-time.xlsx
+++ b/doc/spheres/spheres-time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Spheres</t>
   </si>
@@ -66,19 +66,34 @@
     <t>Octree level</t>
   </si>
   <si>
-    <t>Time 1</t>
+    <t>AVG collision checks (M)</t>
   </si>
   <si>
-    <t>Time 2</t>
+    <t>JS Time 1</t>
   </si>
   <si>
-    <t>Time 3</t>
+    <t>JS Time 2</t>
   </si>
   <si>
-    <t>AVG Time</t>
+    <t>JS Time 3</t>
   </si>
   <si>
-    <t>AVG collision checks (M)</t>
+    <t>JS AVG Time</t>
+  </si>
+  <si>
+    <t>C++ Time 1</t>
+  </si>
+  <si>
+    <t>C++ Time 2</t>
+  </si>
+  <si>
+    <t>C++ Time 3</t>
+  </si>
+  <si>
+    <t>C++ AVG Time</t>
+  </si>
+  <si>
+    <t>C++ % faster</t>
   </si>
 </sst>
 </file>
@@ -173,7 +188,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -386,11 +400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39018880"/>
-        <c:axId val="39020416"/>
+        <c:axId val="94003200"/>
+        <c:axId val="94004736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39018880"/>
+        <c:axId val="94003200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -400,7 +414,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39020416"/>
+        <c:crossAx val="94004736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -408,7 +422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39020416"/>
+        <c:axId val="94004736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,14 +445,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39018880"/>
+        <c:crossAx val="94003200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -496,7 +509,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -709,11 +721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39190912"/>
-        <c:axId val="39192448"/>
+        <c:axId val="42532864"/>
+        <c:axId val="42534400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39190912"/>
+        <c:axId val="42532864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,7 +735,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39192448"/>
+        <c:crossAx val="42534400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -731,7 +743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39192448"/>
+        <c:axId val="42534400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -756,14 +768,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39190912"/>
+        <c:crossAx val="42532864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -847,7 +858,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AVG Time</c:v>
+                  <c:v>JS AVG Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -890,6 +901,64 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19.50266666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++ AVG Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$B$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6483333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1323333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58233333333333326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51066666666666671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4616666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7006666666666668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7596666666666669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.302666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,11 +975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53473664"/>
-        <c:axId val="53475200"/>
+        <c:axId val="42589568"/>
+        <c:axId val="42591360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53473664"/>
+        <c:axId val="42589568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,7 +988,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53475200"/>
+        <c:crossAx val="42591360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -927,7 +996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53475200"/>
+        <c:axId val="42591360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +1007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53473664"/>
+        <c:crossAx val="42589568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1008,7 +1077,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz2!$A$6</c:f>
+              <c:f>Arkusz2!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1022,7 +1091,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz2!$B$6:$K$6</c:f>
+              <c:f>Arkusz2!$B$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1071,11 +1140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53892224"/>
-        <c:axId val="53893760"/>
+        <c:axId val="42611456"/>
+        <c:axId val="42612992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53892224"/>
+        <c:axId val="42611456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +1153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53893760"/>
+        <c:crossAx val="42612992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1092,7 +1161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53893760"/>
+        <c:axId val="42612992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53892224"/>
+        <c:crossAx val="42611456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1192,15 +1261,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1222,15 +1291,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2148,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,7 +2266,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>3.71</v>
@@ -2232,7 +2301,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>3.6709999999999998</v>
@@ -2267,7 +2336,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>3.722</v>
@@ -2302,7 +2371,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <f>AVERAGE(B2:B4)</f>
@@ -2347,37 +2416,232 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="C6">
+        <v>1.694</v>
+      </c>
+      <c r="D6">
+        <v>1.202</v>
+      </c>
+      <c r="E6">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.876</v>
+      </c>
+      <c r="H6">
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="I6">
+        <v>2.74</v>
+      </c>
+      <c r="J6">
+        <v>5.8689999999999998</v>
+      </c>
+      <c r="K6">
+        <v>14.516999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="C7">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="D7">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="H7">
+        <v>1.421</v>
+      </c>
+      <c r="I7">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="J7">
+        <v>5.7469999999999999</v>
+      </c>
+      <c r="K7">
+        <v>14.205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>2.544</v>
+      </c>
+      <c r="C8">
+        <v>1.627</v>
+      </c>
+      <c r="D8">
+        <v>1.093</v>
+      </c>
+      <c r="E8">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="F8">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H8">
+        <v>1.407</v>
+      </c>
+      <c r="I8">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="J8">
+        <v>5.6630000000000003</v>
+      </c>
+      <c r="K8">
+        <v>14.186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B6:B8)</f>
+        <v>2.5550000000000002</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:K9" si="1">AVERAGE(C6:C8)</f>
+        <v>1.6483333333333334</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1.1323333333333334</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.58233333333333326</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.51066666666666671</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.4616666666666667</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>2.7006666666666668</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>5.7596666666666669</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>14.302666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
         <v>250</v>
       </c>
-      <c r="C6">
+      <c r="C10">
         <v>150</v>
       </c>
-      <c r="D6">
+      <c r="D10">
         <v>90</v>
       </c>
-      <c r="E6">
+      <c r="E10">
         <v>40</v>
       </c>
-      <c r="F6">
+      <c r="F10">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="G10">
         <v>7</v>
       </c>
-      <c r="H6">
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="J10">
         <v>9</v>
       </c>
-      <c r="K6">
+      <c r="K10">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <f>B5/B9-1</f>
+        <v>0.44853228962818004</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:K11" si="2">C5/C9-1</f>
+        <v>0.39453993933265918</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.31468943185163378</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.46708643388666293</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.63185378590078312</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.73145979703356745</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79201824401368315</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.72685756603307827</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.46605706348747034</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36356856530250781</v>
       </c>
     </row>
   </sheetData>

--- a/doc/spheres/spheres-time.xlsx
+++ b/doc/spheres/spheres-time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Spheres</t>
   </si>
@@ -93,13 +93,22 @@
     <t>C++ AVG Time</t>
   </si>
   <si>
-    <t>C++ % faster</t>
+    <t>JS % slower</t>
+  </si>
+  <si>
+    <t>JS vs O(n^2) version</t>
+  </si>
+  <si>
+    <t>C++ vs O(n^2) version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,10 +148,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -188,6 +198,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -400,11 +411,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94003200"/>
-        <c:axId val="94004736"/>
+        <c:axId val="92758016"/>
+        <c:axId val="92759552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94003200"/>
+        <c:axId val="92758016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -414,7 +425,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94004736"/>
+        <c:crossAx val="92759552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -422,7 +433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94004736"/>
+        <c:axId val="92759552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,13 +456,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94003200"/>
+        <c:crossAx val="92758016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -509,6 +521,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -721,11 +734,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42532864"/>
-        <c:axId val="42534400"/>
+        <c:axId val="39587840"/>
+        <c:axId val="39589376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42532864"/>
+        <c:axId val="39587840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -735,7 +748,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42534400"/>
+        <c:crossAx val="39589376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -743,7 +756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42534400"/>
+        <c:axId val="39589376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -768,13 +781,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42532864"/>
+        <c:crossAx val="39587840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -975,20 +989,20 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42589568"/>
-        <c:axId val="42591360"/>
+        <c:axId val="39641472"/>
+        <c:axId val="39643008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42589568"/>
+        <c:axId val="39641472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42591360"/>
+        <c:crossAx val="39643008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -996,21 +1010,46 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42591360"/>
+        <c:axId val="39643008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42589568"/>
+        <c:crossAx val="39641472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1140,11 +1179,158 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42611456"/>
-        <c:axId val="42612992"/>
+        <c:axId val="39659008"/>
+        <c:axId val="39660544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42611456"/>
+        <c:axId val="39659008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39660544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39660544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39659008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JS % slower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$B$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.44853228962818004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39453993933265918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31468943185163378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46708643388666293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63185378590078312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73145979703356745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79201824401368315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72685756603307827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46605706348747034</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36356856530250781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="68196224"/>
+        <c:axId val="68197760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="68196224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,7 +1339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42612992"/>
+        <c:crossAx val="68197760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1161,18 +1347,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42612992"/>
+        <c:axId val="68197760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42611456"/>
+        <c:crossAx val="68196224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1263,13 +1449,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1290,16 +1476,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1313,6 +1499,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1610,7 +1826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -2217,10 +2433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,7 +2445,7 @@
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2264,7 +2480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2299,7 +2515,7 @@
         <v>19.071000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2333,8 +2549,12 @@
       <c r="K3">
         <v>19.707000000000001</v>
       </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2369,7 +2589,7 @@
         <v>19.73</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2414,7 +2634,7 @@
         <v>19.50266666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2449,7 +2669,7 @@
         <v>14.516999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2484,7 +2704,7 @@
         <v>14.205</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2519,7 +2739,7 @@
         <v>14.186</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2564,7 +2784,7 @@
         <v>14.302666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2599,7 +2819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2642,6 +2862,96 @@
       <c r="K11" s="2">
         <f t="shared" si="2"/>
         <v>0.36356856530250781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B5/Arkusz1!$K$11</f>
+        <v>0.34639503322621912</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C5/Arkusz1!$K$11</f>
+        <v>0.21514366829937917</v>
+      </c>
+      <c r="D12" s="3">
+        <f>D5/Arkusz1!$K$11</f>
+        <v>0.13933173181917452</v>
+      </c>
+      <c r="E12" s="3">
+        <f>E5/Arkusz1!$K$11</f>
+        <v>7.9961314073565659E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <f>F5/Arkusz1!$K$11</f>
+        <v>7.7995819424078877E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <f>G5/Arkusz1!$K$11</f>
+        <v>0.13839578198608554</v>
+      </c>
+      <c r="H12" s="3">
+        <f>H5/Arkusz1!$K$11</f>
+        <v>0.24515645961376473</v>
+      </c>
+      <c r="I12" s="3">
+        <f>I5/Arkusz1!$K$11</f>
+        <v>0.43649580382491504</v>
+      </c>
+      <c r="J12" s="3">
+        <f>J5/Arkusz1!$K$11</f>
+        <v>0.79031603906030645</v>
+      </c>
+      <c r="K12" s="3">
+        <f>K5/Arkusz1!$K$11</f>
+        <v>1.8253517611456029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B9/Arkusz1!$L$11</f>
+        <v>0.27882866496907965</v>
+      </c>
+      <c r="C13" s="3">
+        <f>C9/Arkusz1!$L$11</f>
+        <v>0.17988359403419424</v>
+      </c>
+      <c r="D13" s="3">
+        <f>D9/Arkusz1!$L$11</f>
+        <v>0.12357220807566388</v>
+      </c>
+      <c r="E13" s="3">
+        <f>E9/Arkusz1!$L$11</f>
+        <v>6.3550381957075283E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <f>F9/Arkusz1!$L$11</f>
+        <v>5.5729356129501639E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <f>G9/Arkusz1!$L$11</f>
+        <v>9.3197526373226619E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <f>H9/Arkusz1!$L$11</f>
+        <v>0.15951255001818843</v>
+      </c>
+      <c r="I13" s="3">
+        <f>I9/Arkusz1!$L$11</f>
+        <v>0.29472535467442706</v>
+      </c>
+      <c r="J13" s="3">
+        <f>J9/Arkusz1!$L$11</f>
+        <v>0.62855583848672247</v>
+      </c>
+      <c r="K13" s="3">
+        <f>K9/Arkusz1!$L$11</f>
+        <v>1.5608584939978174</v>
       </c>
     </row>
   </sheetData>
